--- a/result.xlsx
+++ b/result.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\class\211\AI\AI_A1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADA1F3B-0A41-4CC9-9B3F-6BD2EDEBAB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66413920-9B00-4B3C-9404-21BE890836DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="590" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="deadlock" sheetId="3" r:id="rId1"/>
     <sheet name="player_to_box" sheetId="4" r:id="rId2"/>
     <sheet name="algorithm" sheetId="2" r:id="rId3"/>
-    <sheet name="memory" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="19">
   <si>
     <t>Run time</t>
   </si>
@@ -80,15 +79,6 @@
   </si>
   <si>
     <t>Sau khi cải tiến</t>
-  </si>
-  <si>
-    <t>Memory (MB)</t>
-  </si>
-  <si>
-    <t>A*</t>
-  </si>
-  <si>
-    <t>Best-first search</t>
   </si>
 </sst>
 </file>
@@ -219,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -313,18 +303,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7352,7 +7330,7 @@
         <v>2</v>
       </c>
       <c r="S45" s="32">
-        <f t="shared" ref="R45:S45" si="3">AVERAGE(S5:S44)</f>
+        <f t="shared" ref="S45" si="3">AVERAGE(S5:S44)</f>
         <v>124.825</v>
       </c>
       <c r="T45" s="32">
@@ -10015,7 +9993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA2C156-9DBB-46D3-8372-77545E6E3719}">
   <dimension ref="A1:AN92"/>
   <sheetViews>
-    <sheetView topLeftCell="I7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
@@ -17277,501 +17255,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431409E1-8789-40CE-A466-1872838E0731}">
-  <dimension ref="A1:D44"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.796875" style="39" customWidth="1"/>
-    <col min="2" max="2" width="18.69921875" style="39" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="17.09765625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="39" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="39"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="42">
-        <v>0.9375</v>
-      </c>
-      <c r="C4" s="42">
-        <v>0.85160000000000002</v>
-      </c>
-      <c r="D4" s="42">
-        <v>0.60940000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="42">
-        <v>2.9883000000000002</v>
-      </c>
-      <c r="C5" s="42">
-        <v>3.7069999999999999</v>
-      </c>
-      <c r="D5" s="42">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="42">
-        <v>4.2891000000000004</v>
-      </c>
-      <c r="C6" s="42">
-        <v>4.3906000000000001</v>
-      </c>
-      <c r="D6" s="42">
-        <v>4.9062000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="42">
-        <v>1.6992</v>
-      </c>
-      <c r="C7" s="42">
-        <v>1.6914</v>
-      </c>
-      <c r="D7" s="42">
-        <v>2.1953</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="42">
-        <v>5.8711000000000002</v>
-      </c>
-      <c r="C8" s="42">
-        <v>6.7148000000000003</v>
-      </c>
-      <c r="D8" s="42">
-        <v>13.640599999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="42">
-        <v>8.9413999999999998</v>
-      </c>
-      <c r="C9" s="42">
-        <v>10.2148</v>
-      </c>
-      <c r="D9" s="42">
-        <v>27.582000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="42">
-        <v>3.5116999999999998</v>
-      </c>
-      <c r="C10" s="42">
-        <v>4.3242000000000003</v>
-      </c>
-      <c r="D10" s="42">
-        <v>4.3906000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="42">
-        <v>8.4922000000000004</v>
-      </c>
-      <c r="C11" s="42">
-        <v>9.4219000000000008</v>
-      </c>
-      <c r="D11" s="42">
-        <v>12.019500000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="42">
-        <v>4.6132999999999997</v>
-      </c>
-      <c r="C12" s="42">
-        <v>4.1757999999999997</v>
-      </c>
-      <c r="D12" s="42">
-        <v>4.7226999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="42">
-        <v>6.3476999999999997</v>
-      </c>
-      <c r="C13" s="42">
-        <v>8.25</v>
-      </c>
-      <c r="D13" s="42">
-        <v>9.8515999999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="42">
-        <v>4.4569999999999999</v>
-      </c>
-      <c r="C14" s="42">
-        <v>4.0077999999999996</v>
-      </c>
-      <c r="D14" s="42">
-        <v>12.1602</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="42">
-        <v>8.5780999999999992</v>
-      </c>
-      <c r="C15" s="42">
-        <v>9.3320000000000007</v>
-      </c>
-      <c r="D15" s="42">
-        <v>63.632800000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="42">
-        <v>6.9608999999999996</v>
-      </c>
-      <c r="C16" s="42">
-        <v>7.3281000000000001</v>
-      </c>
-      <c r="D16" s="42">
-        <v>11.2812</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="42">
-        <v>9.5780999999999992</v>
-      </c>
-      <c r="C17" s="42">
-        <v>12.199199999999999</v>
-      </c>
-      <c r="D17" s="42">
-        <v>93.710899999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="42">
-        <v>4.4961000000000002</v>
-      </c>
-      <c r="C18" s="42">
-        <v>4.5038999999999998</v>
-      </c>
-      <c r="D18" s="42">
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="42">
-        <v>6.0351999999999997</v>
-      </c>
-      <c r="C19" s="42">
-        <v>8.5820000000000007</v>
-      </c>
-      <c r="D19" s="42">
-        <v>19.734400000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="42">
-        <v>4.6132999999999997</v>
-      </c>
-      <c r="C20" s="42">
-        <v>5.1327999999999996</v>
-      </c>
-      <c r="D20" s="42">
-        <v>1.6133</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="42">
-        <v>8.0351999999999997</v>
-      </c>
-      <c r="C21" s="42">
-        <v>6.6444999999999999</v>
-      </c>
-      <c r="D21" s="42">
-        <v>15.8828</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="42">
-        <v>5.1132999999999997</v>
-      </c>
-      <c r="C22" s="42">
-        <v>4.5781000000000001</v>
-      </c>
-      <c r="D22" s="42">
-        <v>9.7695000000000007</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="42">
-        <v>7.4023000000000003</v>
-      </c>
-      <c r="C23" s="42">
-        <v>7.5937999999999999</v>
-      </c>
-      <c r="D23" s="42">
-        <v>30.6602</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="42">
-        <v>4.5468999999999999</v>
-      </c>
-      <c r="C24" s="42">
-        <v>5.2656000000000001</v>
-      </c>
-      <c r="D24" s="42">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="42">
-        <v>8.2969000000000008</v>
-      </c>
-      <c r="C25" s="42">
-        <v>9.3047000000000004</v>
-      </c>
-      <c r="D25" s="42">
-        <v>27.625</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="42">
-        <v>7.3281000000000001</v>
-      </c>
-      <c r="C26" s="42">
-        <v>7.2930000000000001</v>
-      </c>
-      <c r="D26" s="42">
-        <v>25.1172</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="42">
-        <v>10.730499999999999</v>
-      </c>
-      <c r="C27" s="42">
-        <v>11.3789</v>
-      </c>
-      <c r="D27" s="42">
-        <v>332.59379999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="42">
-        <v>5.9336000000000002</v>
-      </c>
-      <c r="C28" s="42">
-        <v>5.9531000000000001</v>
-      </c>
-      <c r="D28" s="42">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="42">
-        <v>11.5977</v>
-      </c>
-      <c r="C29" s="42">
-        <v>14.105499999999999</v>
-      </c>
-      <c r="D29" s="42">
-        <v>23.4102</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="42">
-        <v>6.5351999999999997</v>
-      </c>
-      <c r="C30" s="42">
-        <v>5.7226999999999997</v>
-      </c>
-      <c r="D30" s="42">
-        <v>11.9023</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="42">
-        <v>11.875</v>
-      </c>
-      <c r="C31" s="42">
-        <v>12.796900000000001</v>
-      </c>
-      <c r="D31" s="42">
-        <v>34.894500000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="42">
-        <v>4.9452999999999996</v>
-      </c>
-      <c r="C32" s="42">
-        <v>4.7733999999999996</v>
-      </c>
-      <c r="D32" s="42">
-        <v>7.4141000000000004</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="42">
-        <v>11.6328</v>
-      </c>
-      <c r="C33" s="42">
-        <v>11.324199999999999</v>
-      </c>
-      <c r="D33" s="42">
-        <v>91.804699999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="42">
-        <v>2.7812000000000001</v>
-      </c>
-      <c r="C34" s="42">
-        <v>3.3866999999999998</v>
-      </c>
-      <c r="D34" s="42">
-        <v>3.0897999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="42">
-        <v>3.1211000000000002</v>
-      </c>
-      <c r="C35" s="42">
-        <v>2.9569999999999999</v>
-      </c>
-      <c r="D35" s="42">
-        <v>3.7578</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="42">
-        <v>8.4961000000000002</v>
-      </c>
-      <c r="C36" s="42">
-        <v>11.542999999999999</v>
-      </c>
-      <c r="D36" s="42">
-        <v>13.511699999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="42">
-        <v>9.6991999999999994</v>
-      </c>
-      <c r="C37" s="42">
-        <v>9.8672000000000004</v>
-      </c>
-      <c r="D37" s="42">
-        <v>13.675800000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="42">
-        <v>4.1211000000000002</v>
-      </c>
-      <c r="C38" s="42">
-        <v>6.0781000000000001</v>
-      </c>
-      <c r="D38" s="42">
-        <v>4.5781000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="42">
-        <v>11.0352</v>
-      </c>
-      <c r="C39" s="42">
-        <v>5</v>
-      </c>
-      <c r="D39" s="42">
-        <v>8.2734000000000005</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="42">
-        <v>5.0781000000000001</v>
-      </c>
-      <c r="C40" s="42">
-        <v>5.0898000000000003</v>
-      </c>
-      <c r="D40" s="42">
-        <v>11.414099999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="42">
-        <v>3.9375</v>
-      </c>
-      <c r="C41" s="42">
-        <v>5.2226999999999997</v>
-      </c>
-      <c r="D41" s="42">
-        <v>3.8359000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="42">
-        <v>8.2655999999999992</v>
-      </c>
-      <c r="C42" s="42">
-        <v>11.457000000000001</v>
-      </c>
-      <c r="D42" s="42">
-        <v>14.3711</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="42">
-        <v>5.5430000000000001</v>
-      </c>
-      <c r="C43" s="42">
-        <v>5.8007999999999997</v>
-      </c>
-      <c r="D43" s="42">
-        <v>10.5586</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="39">
-        <f>AVERAGE(B4:B43)</f>
-        <v>6.4615275000000025</v>
-      </c>
-      <c r="C44" s="39">
-        <f>AVERAGE(C4:C43)</f>
-        <v>6.949114999999999</v>
-      </c>
-      <c r="D44" s="39">
-        <f>AVERAGE(D4:D43)</f>
-        <v>25.167282499999995</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>